--- a/routes_audit.xlsx
+++ b/routes_audit.xlsx
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">compare!$A$1:$B$301</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">docs!$A$1:$B$151</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rake!$A$1:$B$151</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet5!$A$1:$B$283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet5!$A$1:$B$282</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">titles!$A$1:$B$139</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="154">
   <si>
     <t>DELETE /app_settings/:id</t>
   </si>
@@ -488,28 +488,10 @@
     <t>count</t>
   </si>
   <si>
-    <t>GET /post_comments/:id</t>
-  </si>
-  <si>
-    <t>GET /user_feed--&gt;</t>
-  </si>
-  <si>
-    <t>POST /app_supports--&gt;</t>
-  </si>
-  <si>
-    <t>POST /notifications</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>GET user_connections/user/:user_id</t>
-  </si>
-  <si>
-    <t>Evanta Access API Documentation</t>
   </si>
 </sst>
 </file>
@@ -570,8 +552,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -589,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -600,6 +584,8 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -945,10 +931,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2319,8 +2305,8 @@
   </sheetPr>
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A151" sqref="A2:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2330,10 +2316,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3703,10 +3689,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3716,10 +3702,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3886,7 +3872,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <f>COUNTIF(A:A,A:A)</f>
@@ -3895,7 +3881,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <f>COUNTIF(A:A,A:A)</f>
@@ -3904,7 +3890,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <f>COUNTIF(A:A,A:A)</f>
@@ -3913,7 +3899,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <f>COUNTIF(A:A,A:A)</f>
@@ -3949,7 +3935,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <f>COUNTIF(A:A,A:A)</f>
@@ -3958,7 +3944,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <f>COUNTIF(A:A,A:A)</f>
@@ -3967,7 +3953,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <f>COUNTIF(A:A,A:A)</f>
@@ -3976,7 +3962,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <f>COUNTIF(A:A,A:A)</f>
@@ -3985,7 +3971,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <f>COUNTIF(A:A,A:A)</f>
@@ -3994,7 +3980,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4003,7 +3989,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4012,7 +3998,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4021,7 +4007,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4030,7 +4016,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4039,7 +4025,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4048,7 +4034,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4057,7 +4043,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4066,7 +4052,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4075,7 +4061,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4084,7 +4070,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4093,7 +4079,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4102,7 +4088,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4111,7 +4097,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4120,7 +4106,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4129,7 +4115,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4138,7 +4124,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4147,7 +4133,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4156,7 +4142,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4165,7 +4151,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4174,7 +4160,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4183,7 +4169,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4192,7 +4178,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4201,7 +4187,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4210,7 +4196,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4219,7 +4205,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4228,7 +4214,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4237,7 +4223,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4246,7 +4232,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4255,7 +4241,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4264,7 +4250,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4273,7 +4259,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4282,7 +4268,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4291,7 +4277,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4300,7 +4286,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4309,7 +4295,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4318,7 +4304,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4327,7 +4313,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4336,7 +4322,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4345,7 +4331,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4354,7 +4340,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4363,7 +4349,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4372,7 +4358,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4381,7 +4367,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4390,7 +4376,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4399,7 +4385,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4408,7 +4394,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4417,7 +4403,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4426,7 +4412,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4435,7 +4421,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4444,7 +4430,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4453,7 +4439,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4462,7 +4448,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4471,7 +4457,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4480,7 +4466,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4489,7 +4475,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4498,7 +4484,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4507,7 +4493,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4516,7 +4502,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B90">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4525,7 +4511,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B91">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4534,7 +4520,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B92">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4543,7 +4529,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="B93">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4552,7 +4538,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4561,7 +4547,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4570,7 +4556,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4579,7 +4565,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4588,7 +4574,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4597,7 +4583,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4606,7 +4592,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4615,7 +4601,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B101">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4624,7 +4610,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4633,7 +4619,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B103">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4642,7 +4628,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="B104">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4651,7 +4637,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4660,7 +4646,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4669,7 +4655,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4678,7 +4664,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4687,7 +4673,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4696,7 +4682,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B110">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4705,7 +4691,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B111">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4714,7 +4700,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B112">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4723,7 +4709,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B113">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4732,7 +4718,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B114">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4741,7 +4727,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B115">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4750,7 +4736,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B116">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4759,7 +4745,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4768,7 +4754,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B118">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4777,7 +4763,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B119">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4786,7 +4772,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B120">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4795,7 +4781,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B121">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4804,7 +4790,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B122">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4813,7 +4799,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B123">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4822,7 +4808,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4831,7 +4817,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B125">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4840,7 +4826,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B126">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4849,7 +4835,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B127">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4858,7 +4844,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B128">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4867,7 +4853,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B129">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4876,7 +4862,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B130">
         <f>COUNTIF(A:A,A:A)</f>
@@ -4885,15 +4871,23 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <f>COUNTIF(A:A,A:A)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B139"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4906,11 +4900,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A284" sqref="A284"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4920,168 +4913,168 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" hidden="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" hidden="1">
-      <c r="A5" s="3" t="s">
+      <c r="B5">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1">
-      <c r="A6" s="3" t="s">
+      <c r="B6">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1">
-      <c r="A7" s="3" t="s">
+      <c r="B7">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" hidden="1">
-      <c r="A8" s="3" t="s">
+      <c r="B8">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" hidden="1">
-      <c r="A9" s="3" t="s">
+      <c r="B9">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1">
-      <c r="A10" s="3" t="s">
+      <c r="B10">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" hidden="1">
-      <c r="A11" s="3" t="s">
+      <c r="B11">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1">
-      <c r="A12" s="3" t="s">
+      <c r="B12">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" hidden="1">
-      <c r="A13" s="3" t="s">
+      <c r="B13">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1">
-      <c r="A14" s="3" t="s">
+      <c r="B14">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" hidden="1">
-      <c r="A15" s="3" t="s">
+      <c r="B15">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" hidden="1">
-      <c r="A16" s="3" t="s">
+      <c r="B16">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1">
-      <c r="A17" s="3" t="s">
+      <c r="B17">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1">
-      <c r="A18" s="3" t="s">
+      <c r="B18">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B18">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B19">
         <f>COUNTIF(A:A,A:A)</f>
@@ -5090,133 +5083,133 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1">
-      <c r="A21" s="3" t="s">
+      <c r="B21">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1">
-      <c r="A22" s="3" t="s">
+      <c r="B22">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1">
-      <c r="A23" s="3" t="s">
+      <c r="B23">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1">
-      <c r="A24" s="3" t="s">
+      <c r="B24">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1">
-      <c r="A25" s="3" t="s">
+      <c r="B25">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" hidden="1">
-      <c r="A26" s="3" t="s">
+      <c r="B27">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1">
-      <c r="A27" s="3" t="s">
+      <c r="B28">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1">
-      <c r="A28" s="3" t="s">
+      <c r="B29">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1">
-      <c r="A29" s="3" t="s">
+      <c r="B30">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1">
-      <c r="A30" s="3" t="s">
+      <c r="B31">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1">
-      <c r="A31" s="3" t="s">
+      <c r="B32">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1">
-      <c r="A32" s="3" t="s">
+      <c r="B33">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B32">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" hidden="1">
-      <c r="A34" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B34">
         <f>COUNTIF(A:A,A:A)</f>
@@ -5225,439 +5218,439 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1">
-      <c r="A36" s="3" t="s">
+      <c r="B37">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1">
-      <c r="A37" s="3" t="s">
+      <c r="B38">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B37">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1">
-      <c r="A38" s="3" t="s">
+      <c r="B39">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B38">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1">
-      <c r="A39" s="3" t="s">
+      <c r="B40">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B39">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1">
-      <c r="A40" s="3" t="s">
+      <c r="B41">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B40">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1">
-      <c r="A41" s="3" t="s">
+      <c r="B42">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B41">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1">
-      <c r="A42" s="3" t="s">
+      <c r="B43">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B42">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1">
-      <c r="A43" s="3" t="s">
+      <c r="B44">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B43">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" hidden="1">
-      <c r="A44" s="3" t="s">
+      <c r="B45">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" hidden="1">
-      <c r="A45" s="3" t="s">
+      <c r="B46">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1">
-      <c r="A46" s="3" t="s">
+      <c r="B47">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B46">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1">
-      <c r="A47" s="3" t="s">
+      <c r="B48">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B47">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1">
-      <c r="A48" s="3" t="s">
+      <c r="B49">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B48">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1">
-      <c r="A49" s="3" t="s">
+      <c r="B50">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B49">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1">
-      <c r="A50" s="3" t="s">
+      <c r="B51">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B50">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1">
-      <c r="A51" s="3" t="s">
+      <c r="B52">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B51">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1">
-      <c r="A52" s="3" t="s">
+      <c r="B53">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B52">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1">
-      <c r="A53" s="3" t="s">
+      <c r="B54">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B53">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1">
-      <c r="A54" s="3" t="s">
+      <c r="B55">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B54">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" hidden="1">
-      <c r="A55" s="3" t="s">
+      <c r="B56">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B55">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1">
-      <c r="A56" s="3" t="s">
+      <c r="B57">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B56">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1">
-      <c r="A57" s="3" t="s">
+      <c r="B58">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B57">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1">
-      <c r="A58" s="3" t="s">
+      <c r="B59">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B58">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1">
-      <c r="A59" s="3" t="s">
+      <c r="B60">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B59">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1">
-      <c r="A60" s="3" t="s">
+      <c r="B61">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B60">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1">
-      <c r="A61" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1">
-      <c r="A62" s="3" t="s">
+      <c r="B62">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B62">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1">
-      <c r="A63" s="3" t="s">
+      <c r="B63">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B63">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1">
-      <c r="A64" s="3" t="s">
+      <c r="B64">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B64">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1">
-      <c r="A65" s="3" t="s">
+      <c r="B65">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B65">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1">
-      <c r="A66" s="3" t="s">
+      <c r="B66">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B66">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1">
-      <c r="A67" s="3" t="s">
+      <c r="B67">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B67">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1">
-      <c r="A68" s="3" t="s">
+      <c r="B68">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B68">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1">
-      <c r="A69" s="3" t="s">
+      <c r="B69">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B69">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" hidden="1">
-      <c r="A70" s="3" t="s">
+      <c r="B70">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B70">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1">
-      <c r="A71" s="3" t="s">
+      <c r="B71">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B71">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1">
-      <c r="A72" s="3" t="s">
+      <c r="B72">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B72">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1">
-      <c r="A73" s="3" t="s">
+      <c r="B73">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B73">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1">
-      <c r="A74" s="3" t="s">
+      <c r="B74">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B74">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1">
-      <c r="A75" s="3" t="s">
+      <c r="B75">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B75">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1">
-      <c r="A76" s="3" t="s">
+      <c r="B76">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B76">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1">
-      <c r="A77" s="3" t="s">
+      <c r="B77">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B77">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1">
-      <c r="A78" s="3" t="s">
+      <c r="B78">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B78">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1">
-      <c r="A79" s="3" t="s">
+      <c r="B79">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B79">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1">
-      <c r="A80" s="3" t="s">
+      <c r="B80">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B80">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1">
-      <c r="A81" s="3" t="s">
+      <c r="B81">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B81">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1">
-      <c r="A82" s="3" t="s">
+      <c r="B82">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B82">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1">
-      <c r="A83" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="B83">
         <f>COUNTIF(A:A,A:A)</f>
@@ -5666,70 +5659,70 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B84">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1">
-      <c r="A85" s="3" t="s">
+      <c r="B85">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B85">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1">
-      <c r="A86" s="3" t="s">
+      <c r="B86">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B86">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1">
-      <c r="A87" s="3" t="s">
+      <c r="B87">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B87">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1">
-      <c r="A88" s="3" t="s">
+      <c r="B88">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B88">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1">
-      <c r="A89" s="3" t="s">
+      <c r="B89">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B89">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" hidden="1">
-      <c r="A90" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1">
-      <c r="A91" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="B91">
         <f>COUNTIF(A:A,A:A)</f>
@@ -5738,574 +5731,574 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B92">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B94">
         <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B129">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B130">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" hidden="1">
-      <c r="A95" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B95">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" hidden="1">
-      <c r="A96" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" hidden="1">
-      <c r="A97" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B97">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" hidden="1">
-      <c r="A98" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" hidden="1">
-      <c r="A99" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" hidden="1">
-      <c r="A100" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" hidden="1">
-      <c r="A101" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" hidden="1">
-      <c r="A102" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" hidden="1">
-      <c r="A103" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" hidden="1">
-      <c r="A104" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B104">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" hidden="1">
-      <c r="A105" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B105">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" hidden="1">
-      <c r="A106" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" hidden="1">
-      <c r="A107" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" hidden="1">
-      <c r="A108" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" hidden="1">
-      <c r="A109" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" hidden="1">
-      <c r="A110" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B110">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" hidden="1">
-      <c r="A111" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B111">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" hidden="1">
-      <c r="A112" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B112">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" hidden="1">
-      <c r="A113" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B113">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" hidden="1">
-      <c r="A114" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B114">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" hidden="1">
-      <c r="A115" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" hidden="1">
-      <c r="A116" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B116">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" hidden="1">
-      <c r="A117" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B117">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" hidden="1">
-      <c r="A118" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B118">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" hidden="1">
-      <c r="A119" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B119">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" hidden="1">
-      <c r="A120" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B120">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" hidden="1">
-      <c r="A121" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B121">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" hidden="1">
-      <c r="A122" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B122">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" hidden="1">
-      <c r="A123" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B123">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" hidden="1">
-      <c r="A124" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B124">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" hidden="1">
-      <c r="A125" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B125">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" hidden="1">
-      <c r="A126" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B126">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" hidden="1">
-      <c r="A127" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B127">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" hidden="1">
-      <c r="A128" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B128">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" hidden="1">
-      <c r="A129" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B129">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" hidden="1">
-      <c r="A130" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B130">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" hidden="1">
-      <c r="A131" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B131">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" hidden="1">
-      <c r="A132" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B132">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" hidden="1">
-      <c r="A133" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B133">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" hidden="1">
-      <c r="A134" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" hidden="1">
-      <c r="A135" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B135">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1">
+    <row r="136" spans="1:2">
       <c r="A136" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B136">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1">
+    <row r="137" spans="1:2">
       <c r="A137" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B137">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1">
+    <row r="138" spans="1:2">
       <c r="A138" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B138">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1">
+    <row r="139" spans="1:2">
       <c r="A139" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B139">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1">
+    <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B140">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1">
+    <row r="141" spans="1:2">
       <c r="A141" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B141">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1">
+    <row r="142" spans="1:2">
       <c r="A142" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B142">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1">
+    <row r="143" spans="1:2">
       <c r="A143" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B143">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1">
+    <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B144">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1">
+    <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B145">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1">
+    <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B146">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1">
+    <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B147">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1">
+    <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B148">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B149">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B150">
         <f>COUNTIF(A:A,A:A)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1">
+    <row r="151" spans="1:2">
       <c r="A151" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B151">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B152">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B153">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1">
+    <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B154">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1">
+    <row r="155" spans="1:2">
       <c r="A155" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B155">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6314,151 +6307,151 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B156">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B157">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1">
+    <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B158">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B159">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1">
+    <row r="160" spans="1:2">
       <c r="A160" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B160">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1">
+    <row r="161" spans="1:2">
       <c r="A161" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B161">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1">
+    <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B162">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B163">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1">
+    <row r="164" spans="1:2">
       <c r="A164" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B164">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1">
+    <row r="165" spans="1:2">
       <c r="A165" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B165">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1">
+    <row r="166" spans="1:2">
       <c r="A166" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B166">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1">
+    <row r="167" spans="1:2">
       <c r="A167" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B167">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1">
+    <row r="168" spans="1:2">
       <c r="A168" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B168">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1">
+    <row r="169" spans="1:2">
       <c r="A169" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B169">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1">
+    <row r="170" spans="1:2">
       <c r="A170" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B170">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1">
+    <row r="171" spans="1:2">
       <c r="A171" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B171">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1">
+    <row r="172" spans="1:2">
       <c r="A172" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B172">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6467,457 +6460,457 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B173">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B174">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1">
+    <row r="175" spans="1:2">
       <c r="A175" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B175">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1">
+    <row r="176" spans="1:2">
       <c r="A176" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B176">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1">
+    <row r="177" spans="1:2">
       <c r="A177" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B177">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1">
+    <row r="178" spans="1:2">
       <c r="A178" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B178">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1">
+    <row r="179" spans="1:2">
       <c r="A179" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B179">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1">
+    <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B180">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1">
+    <row r="181" spans="1:2">
       <c r="A181" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B181">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1">
+    <row r="182" spans="1:2">
       <c r="A182" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B182">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1">
+    <row r="183" spans="1:2">
       <c r="A183" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B183">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1">
+    <row r="184" spans="1:2">
       <c r="A184" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B184">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1">
+    <row r="185" spans="1:2">
       <c r="A185" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B185">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1">
+    <row r="186" spans="1:2">
       <c r="A186" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B186">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1">
+    <row r="187" spans="1:2">
       <c r="A187" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B187">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1">
+    <row r="188" spans="1:2">
       <c r="A188" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B188">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1">
+    <row r="189" spans="1:2">
       <c r="A189" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B189">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1">
+    <row r="190" spans="1:2">
       <c r="A190" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B190">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1">
+    <row r="191" spans="1:2">
       <c r="A191" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B191">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1">
+    <row r="192" spans="1:2">
       <c r="A192" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B192">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1">
+    <row r="193" spans="1:2">
       <c r="A193" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B193">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1">
+    <row r="194" spans="1:2">
       <c r="A194" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B194">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1">
+    <row r="195" spans="1:2">
       <c r="A195" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B195">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1">
+    <row r="196" spans="1:2">
       <c r="A196" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B196">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1">
+    <row r="197" spans="1:2">
       <c r="A197" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B197">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1">
+    <row r="198" spans="1:2">
       <c r="A198" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B198">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1">
+    <row r="199" spans="1:2">
       <c r="A199" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B199">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1">
+    <row r="200" spans="1:2">
       <c r="A200" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B200">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1">
+    <row r="201" spans="1:2">
       <c r="A201" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B201">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1">
+    <row r="202" spans="1:2">
       <c r="A202" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B202">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1">
+    <row r="203" spans="1:2">
       <c r="A203" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B203">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1">
+    <row r="204" spans="1:2">
       <c r="A204" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B204">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1">
+    <row r="205" spans="1:2">
       <c r="A205" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B205">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1">
+    <row r="206" spans="1:2">
       <c r="A206" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B206">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1">
+    <row r="207" spans="1:2">
       <c r="A207" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B207">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1">
+    <row r="208" spans="1:2">
       <c r="A208" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B208">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1">
+    <row r="209" spans="1:2">
       <c r="A209" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B209">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1">
+    <row r="210" spans="1:2">
       <c r="A210" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B210">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1">
+    <row r="211" spans="1:2">
       <c r="A211" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B211">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1">
+    <row r="212" spans="1:2">
       <c r="A212" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B212">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1">
+    <row r="213" spans="1:2">
       <c r="A213" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B213">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1">
+    <row r="214" spans="1:2">
       <c r="A214" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B214">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1">
+    <row r="215" spans="1:2">
       <c r="A215" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B215">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1">
+    <row r="216" spans="1:2">
       <c r="A216" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B216">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1">
+    <row r="217" spans="1:2">
       <c r="A217" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B217">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1">
+    <row r="218" spans="1:2">
       <c r="A218" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B218">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B219">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B220">
         <f>COUNTIF(A:A,A:A)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1">
+    <row r="221" spans="1:2">
       <c r="A221" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B221">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B222">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B223">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6926,552 +6919,527 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B224">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B225">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1">
+    <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B226">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B227">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B228">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B229">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B230">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1">
+    <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B231">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B232">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1">
+    <row r="233" spans="1:2">
       <c r="A233" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B233">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B234">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B235">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B236">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B237">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1">
+    <row r="238" spans="1:2">
       <c r="A238" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B238">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1">
+    <row r="239" spans="1:2">
       <c r="A239" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B239">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1">
+    <row r="240" spans="1:2">
       <c r="A240" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B240">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1">
+    <row r="241" spans="1:2">
       <c r="A241" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B241">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B242">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B243">
         <f>COUNTIF(A:A,A:A)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1">
+    <row r="244" spans="1:2">
       <c r="A244" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B244">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B245">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B246">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1">
+    <row r="247" spans="1:2">
       <c r="A247" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B247">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1">
+    <row r="248" spans="1:2">
       <c r="A248" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B248">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1">
+    <row r="249" spans="1:2">
       <c r="A249" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B249">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1">
+    <row r="250" spans="1:2">
       <c r="A250" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B250">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1">
+    <row r="251" spans="1:2">
       <c r="A251" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B251">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1">
+    <row r="252" spans="1:2">
       <c r="A252" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B252">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1">
+    <row r="253" spans="1:2">
       <c r="A253" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B253">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1">
+    <row r="254" spans="1:2">
       <c r="A254" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B254">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1">
+    <row r="255" spans="1:2">
       <c r="A255" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B255">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1">
+    <row r="256" spans="1:2">
       <c r="A256" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B256">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1">
+    <row r="257" spans="1:2">
       <c r="A257" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B257">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1">
+    <row r="258" spans="1:2">
       <c r="A258" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B258">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1">
+    <row r="259" spans="1:2">
       <c r="A259" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B259">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1">
+    <row r="260" spans="1:2">
       <c r="A260" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B260">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1">
+    <row r="261" spans="1:2">
       <c r="A261" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B261">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1">
+    <row r="262" spans="1:2">
       <c r="A262" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B262">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1">
+    <row r="263" spans="1:2">
       <c r="A263" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B263">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1">
+    <row r="264" spans="1:2">
       <c r="A264" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B264">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B265">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B266">
         <f>COUNTIF(A:A,A:A)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1">
+    <row r="267" spans="1:2">
       <c r="A267" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B267">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B268">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B269">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1">
+    <row r="270" spans="1:2">
       <c r="A270" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B270">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1">
+    <row r="271" spans="1:2">
       <c r="A271" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B271">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1">
+    <row r="272" spans="1:2">
       <c r="A272" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B272">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1">
+    <row r="273" spans="1:2">
       <c r="A273" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B273">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1">
+    <row r="274" spans="1:2">
       <c r="A274" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B274">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1">
+    <row r="275" spans="1:2">
       <c r="A275" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B275">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1">
+    <row r="276" spans="1:2">
       <c r="A276" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B276">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B277">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B278">
         <f>COUNTIF(A:A,A:A)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1">
+    <row r="279" spans="1:2">
       <c r="A279" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B279">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B280">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B281">
         <f>COUNTIF(A:A,A:A)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1">
-      <c r="A282" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B282">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" hidden="1">
-      <c r="A283" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B283">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B283">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7485,7 +7453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A226" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>

--- a/routes_audit.xlsx
+++ b/routes_audit.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-440" windowWidth="25600" windowHeight="20480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-25600" yWindow="-440" windowWidth="25600" windowHeight="20480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rake" sheetId="1" r:id="rId1"/>
     <sheet name="docs" sheetId="2" r:id="rId2"/>
     <sheet name="titles" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="compare" sheetId="3" r:id="rId5"/>
+    <sheet name="d vs t" sheetId="5" r:id="rId4"/>
+    <sheet name="r vs d" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">compare!$A$1:$B$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'d vs t'!$A$1:$B$282</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">docs!$A$1:$B$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'r vs d'!$A$1:$B$301</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rake!$A$1:$B$151</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet5!$A$1:$B$282</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">titles!$A$1:$B$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">titles!$A$1:$B$132</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="154">
   <si>
     <t>DELETE /app_settings/:id</t>
   </si>
@@ -552,8 +552,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -573,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -586,6 +588,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -921,7 +925,7 @@
   <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2288,6 +2292,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B151"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2305,8 +2310,8 @@
   </sheetPr>
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A151" sqref="A2:A151"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3488,7 +3493,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B151" si="2">COUNTIF(A:A,A:A)</f>
+        <f t="shared" ref="B131:B152" si="2">COUNTIF(A:A,A:A)</f>
         <v>1</v>
       </c>
     </row>
@@ -3691,8 +3696,8 @@
   </sheetPr>
   <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4888,6 +4893,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B132"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4900,10 +4906,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4920,7 +4926,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -4929,7 +4935,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -4938,7 +4944,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -4947,7 +4953,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -4956,7 +4962,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -4965,7 +4971,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -4974,7 +4980,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -4983,7 +4989,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -4992,7 +4998,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -5001,7 +5007,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -5010,7 +5016,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -5019,7 +5025,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -5028,7 +5034,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14">
@@ -5037,7 +5043,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -5046,7 +5052,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16">
@@ -5055,7 +5061,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17">
@@ -5064,1025 +5070,1025 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="B21">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="B22">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="B23">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="B24">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="B25">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="B27">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="B28">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="B29">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="B30">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="B31">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="B32">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="B33">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
+      <c r="B34">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="B35">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
+      <c r="B36">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="B37">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="B38">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+      <c r="B39">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="B40">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
+      <c r="B41">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
+      <c r="B42">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
+      <c r="B43">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
+      <c r="B44">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="B45">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
+      <c r="B46">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+      <c r="B47">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B44">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
+      <c r="B48">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="B49">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
+      <c r="B50">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
+      <c r="B51">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B48">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
+      <c r="B52">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B49">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
+      <c r="B53">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B50">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3" t="s">
+      <c r="B54">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B51">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="B55">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B52">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
+      <c r="B56">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B53">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
+      <c r="B57">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B54">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
+      <c r="B58">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B55">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
+      <c r="B59">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B56">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
+      <c r="B60">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B57">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
+      <c r="B61">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B58">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
+      <c r="B62">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B59">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="3" t="s">
+      <c r="B63">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B60">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
+      <c r="B64">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B61">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
+      <c r="B65">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B62">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
+      <c r="B66">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B63">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="3" t="s">
+      <c r="B67">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B64">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
+      <c r="B68">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B65">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
+      <c r="B69">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B66">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3" t="s">
+      <c r="B70">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B67">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="3" t="s">
+      <c r="B71">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B68">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="3" t="s">
+      <c r="B72">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B69">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="3" t="s">
+      <c r="B73">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B70">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="3" t="s">
+      <c r="B74">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B71">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="3" t="s">
+      <c r="B75">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B72">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="3" t="s">
+      <c r="B76">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B73">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="3" t="s">
+      <c r="B77">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B74">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="3" t="s">
+      <c r="B78">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B75">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="3" t="s">
+      <c r="B79">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B76">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="3" t="s">
+      <c r="B80">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B77">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="3" t="s">
+      <c r="B81">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B78">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="3" t="s">
+      <c r="B82">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B79">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="3" t="s">
+      <c r="B83">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B80">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="3" t="s">
+      <c r="B84">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B81">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="3" t="s">
+      <c r="B85">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B82">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="3" t="s">
+      <c r="B86">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B83">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="3" t="s">
+      <c r="B87">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B84">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="3" t="s">
+      <c r="B91">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B85">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="3" t="s">
+      <c r="B92">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B86">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="3" t="s">
+      <c r="B93">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B87">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="3" t="s">
+      <c r="B94">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B88">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="3" t="s">
+      <c r="B95">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B89">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="3" t="s">
+      <c r="B98">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B90">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="3" t="s">
+      <c r="B99">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B91">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="3" t="s">
+      <c r="B100">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B92">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="3" t="s">
+      <c r="B101">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B93">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="3" t="s">
+      <c r="B102">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B94">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="3" t="s">
+      <c r="B105">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B95">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="3" t="s">
+      <c r="B106">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B96">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="3" t="s">
+      <c r="B107">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B97">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="3" t="s">
+      <c r="B108">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B98">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="3" t="s">
+      <c r="B109">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B99">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="3" t="s">
+      <c r="B110">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B100">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="3" t="s">
+      <c r="B114">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B101">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="3" t="s">
+      <c r="B115">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B102">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="3" t="s">
+      <c r="B116">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B103">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="3" t="s">
+      <c r="B117">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B104">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="3" t="s">
+      <c r="B118">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B105">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="3" t="s">
+      <c r="B119">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B106">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="3" t="s">
+      <c r="B120">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B107">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="3" t="s">
+      <c r="B121">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B108">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="3" t="s">
+      <c r="B122">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B109">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="3" t="s">
+      <c r="B123">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B110">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="3" t="s">
+      <c r="B124">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B111">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="3" t="s">
+      <c r="B125">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B112">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="3" t="s">
+      <c r="B126">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B113">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="3" t="s">
+      <c r="B127">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B114">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="3" t="s">
+      <c r="B128">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B115">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="3" t="s">
+      <c r="B129">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B116">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="3" t="s">
+      <c r="B130">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B117">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B118">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B119">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B120">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B123">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B124">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B125">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B126">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B127">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B128">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B129">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B130">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="B131">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6091,7 +6097,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6100,7 +6106,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6109,34 +6115,34 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6145,7 +6151,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6154,7 +6160,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6163,7 +6169,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6172,7 +6178,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6181,7 +6187,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6190,7 +6196,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6199,7 +6205,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6208,7 +6214,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6217,25 +6223,25 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <f>COUNTIF(A:A,A:A)</f>
@@ -6244,1199 +6250,1204 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B151">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="2" t="s">
+      <c r="B168">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B152">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="2" t="s">
+      <c r="B169">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B153">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="2" t="s">
+      <c r="B170">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B154">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="2" t="s">
+      <c r="B171">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B155">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="2" t="s">
+      <c r="B172">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B156">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="2" t="s">
+      <c r="B173">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B157">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="2" t="s">
+      <c r="B174">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B158">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="2" t="s">
+      <c r="B175">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B159">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="2" t="s">
+      <c r="B176">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B160">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="2" t="s">
+      <c r="B177">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B161">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="2" t="s">
+      <c r="B178">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B162">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="2" t="s">
+      <c r="B179">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B163">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="2" t="s">
+      <c r="B180">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B164">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="2" t="s">
+      <c r="B181">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B165">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="2" t="s">
+      <c r="B182">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B166">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="2" t="s">
+      <c r="B183">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B167">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="2" t="s">
+      <c r="B184">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B168">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="2" t="s">
+      <c r="B185">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B169">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="2" t="s">
+      <c r="B186">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B170">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="2" t="s">
+      <c r="B187">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B171">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="2" t="s">
+      <c r="B188">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B172">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="2" t="s">
+      <c r="B189">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B173">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="2" t="s">
+      <c r="B190">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B174">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="2" t="s">
+      <c r="B191">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B175">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="2" t="s">
+      <c r="B192">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B176">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="2" t="s">
+      <c r="B193">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B177">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="2" t="s">
+      <c r="B194">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B178">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="2" t="s">
+      <c r="B195">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B179">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="2" t="s">
+      <c r="B196">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B180">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="2" t="s">
+      <c r="B197">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B181">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="2" t="s">
+      <c r="B198">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B182">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="2" t="s">
+      <c r="B199">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B183">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="2" t="s">
+      <c r="B200">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B184">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="2" t="s">
+      <c r="B201">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B185">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="2" t="s">
+      <c r="B202">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B186">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="2" t="s">
+      <c r="B203">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B187">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="2" t="s">
+      <c r="B204">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B188">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="2" t="s">
+      <c r="B205">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B189">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="2" t="s">
+      <c r="B206">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B190">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="2" t="s">
+      <c r="B207">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B191">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="2" t="s">
+      <c r="B208">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B192">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="2" t="s">
+      <c r="B209">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B193">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="2" t="s">
+      <c r="B210">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B194">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="2" t="s">
+      <c r="B211">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B195">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="2" t="s">
+      <c r="B212">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B196">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="2" t="s">
+      <c r="B213">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B197">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="2" t="s">
+      <c r="B214">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B198">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="2" t="s">
+      <c r="B215">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B199">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="2" t="s">
+      <c r="B216">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B200">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="2" t="s">
+      <c r="B217">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B201">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="2" t="s">
+      <c r="B218">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B202">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="2" t="s">
+      <c r="B219">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B203">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2" t="s">
+      <c r="B220">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B204">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="2" t="s">
+      <c r="B221">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B205">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="2" t="s">
+      <c r="B222">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B206">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="2" t="s">
+      <c r="B223">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B207">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="2" t="s">
+      <c r="B224">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B208">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2" t="s">
+      <c r="B225">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B209">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="2" t="s">
+      <c r="B226">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B210">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="2" t="s">
+      <c r="B227">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B211">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="2" t="s">
+      <c r="B228">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B212">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2" t="s">
+      <c r="B229">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B213">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2" t="s">
+      <c r="B230">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B214">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="2" t="s">
+      <c r="B231">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B215">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="2" t="s">
+      <c r="B232">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B216">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="2" t="s">
+      <c r="B233">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B217">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B218">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B219">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B220">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2" t="s">
+      <c r="B234">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B221">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="2" t="s">
+      <c r="B235">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B222">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="2" t="s">
+      <c r="B236">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B223">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="2" t="s">
+      <c r="B237">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B224">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="2" t="s">
+      <c r="B238">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B225">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B226">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B227">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="2" t="s">
+      <c r="B239">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B228">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="2" t="s">
+      <c r="B240">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B229">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="2" t="s">
+      <c r="B241">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B230">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="2" t="s">
+      <c r="B242">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B231">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="2" t="s">
+      <c r="B243">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B232">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B233">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B234">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="2" t="s">
+      <c r="B244">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B235">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="2" t="s">
+      <c r="B245">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B236">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="2" t="s">
+      <c r="B246">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B237">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="2" t="s">
+      <c r="B247">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B238">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="2" t="s">
+      <c r="B248">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B239">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="2" t="s">
+      <c r="B249">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B240">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B241">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B242">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B243">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="2" t="s">
+      <c r="B250">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B244">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="2" t="s">
+      <c r="B251">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B245">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="2" t="s">
+      <c r="B252">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B246">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="2" t="s">
+      <c r="B253">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B247">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="2" t="s">
+      <c r="B254">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B248">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="2" t="s">
+      <c r="B255">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B249">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="2" t="s">
+      <c r="B256">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B250">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="2" t="s">
+      <c r="B257">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B251">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="2" t="s">
+      <c r="B258">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B252">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="2" t="s">
+      <c r="B259">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B253">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="2" t="s">
+      <c r="B260">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B254">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="2" t="s">
+      <c r="B261">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B255">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="2" t="s">
+      <c r="B262">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B256">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="2" t="s">
+      <c r="B263">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B257">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="2" t="s">
+      <c r="B264">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B258">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="2" t="s">
+      <c r="B265">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B259">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="2" t="s">
+      <c r="B266">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B260">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="2" t="s">
+      <c r="B267">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B261">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="2" t="s">
+      <c r="B268">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B262">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="2" t="s">
+      <c r="B269">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B263">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B264">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B265">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B266">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="2" t="s">
+      <c r="B270">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B267">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="2" t="s">
+      <c r="B271">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B268">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="2" t="s">
+      <c r="B272">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B269">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="2" t="s">
+      <c r="B273">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B270">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="2" t="s">
+      <c r="B274">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B271">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="2" t="s">
+      <c r="B275">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B272">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2" t="s">
+      <c r="B276">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B273">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="2" t="s">
+      <c r="B277">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B274">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="2" t="s">
+      <c r="B278">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B275">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B276">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B277">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B278">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="2" t="s">
+      <c r="B279">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B279">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="2" t="s">
+      <c r="B280">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B280">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="2" t="s">
+      <c r="B281">
+        <f>COUNTIF(A:A,A:A)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B281">
-        <f>COUNTIF(A:A,A:A)</f>
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7453,7 +7464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
